--- a/data/trans_dic/IP33A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP33A-Edad-trans_dic.xlsx
@@ -784,7 +784,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -814,17 +814,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -834,17 +834,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>36,7%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -862,69 +862,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 37,99</t>
+          <t>23,97; 52,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 22,47</t>
+          <t>18,76; 47,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 31,94</t>
+          <t>25,71; 44,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 27,26</t>
+          <t>6,87; 29,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,6; 35,38</t>
+          <t>29,62; 54,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 30,66</t>
+          <t>29,54; 48,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 27,22</t>
+          <t>18,44; 38,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 24,94</t>
+          <t>28,65; 47,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,15; 28,26</t>
+          <t>29,69; 43,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0; 17,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -974,17 +974,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1002,62 +1002,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,97; 52,08</t>
+          <t>13,14; 37,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,76; 47,07</t>
+          <t>6,81; 22,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,71; 44,86</t>
+          <t>13,62; 31,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 29,15</t>
+          <t>6,48; 27,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,62; 54,06</t>
+          <t>12,6; 35,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,54; 48,53</t>
+          <t>13,45; 30,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 38,59</t>
+          <t>11,18; 27,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,65; 47,12</t>
+          <t>11,86; 24,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,69; 43,24</t>
+          <t>16,15; 28,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0; 6,36</t>
         </is>
       </c>
     </row>
